--- a/BOM/COMMS_BOM.xlsx
+++ b/BOM/COMMS_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikas\Desktop\peaksat-repos\COMMSBoard_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A68CE0C-02FE-4E8E-B01E-2B47BCB84357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18358199-479C-4FB2-945B-08C0215C5765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>Η1</t>
   </si>
   <si>
-    <t>SSQ-126-03-G-D</t>
-  </si>
-  <si>
     <t>J103</t>
   </si>
   <si>
@@ -1078,6 +1075,9 @@
       </rPr>
       <t>To be placed only on the FM</t>
     </r>
+  </si>
+  <si>
+    <t>ESQ-126-48-G-D-LL</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1662,7 +1662,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -2849,7 +2849,7 @@
         <v>103</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -2908,83 +2908,83 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:25" s="19" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="16">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+    </row>
+    <row r="39" spans="1:25" s="19" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-    </row>
-    <row r="39" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
+      <c r="E39" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="1:25" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -2993,10 +2993,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="41" spans="1:25" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -3030,10 +3030,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="42" spans="1:25" ht="24.6" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
@@ -3067,10 +3067,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="43" spans="1:25" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
@@ -3104,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="44" spans="1:25" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -3141,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="45" spans="1:25" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -3178,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="46" spans="1:25" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -3218,7 +3218,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="47" spans="1:25" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>48</v>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="6">
         <v>782853200</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="48" spans="1:25" ht="14.25" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>61</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3317,19 +3317,19 @@
     </row>
     <row r="49" spans="1:25" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3354,19 +3354,19 @@
     </row>
     <row r="50" spans="1:25" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3391,19 +3391,19 @@
     </row>
     <row r="51" spans="1:25" ht="14.25" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="52" spans="1:25" ht="14.25" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
@@ -3437,10 +3437,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="53" spans="1:25" ht="14.25" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="54" spans="1:25" ht="14.25" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
@@ -3514,7 +3514,7 @@
         <v>82</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="55" spans="1:25" ht="14.25" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
@@ -3551,7 +3551,7 @@
         <v>52.3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="56" spans="1:25" ht="14.25" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
@@ -3585,10 +3585,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="57" spans="1:25" ht="14.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
@@ -3622,10 +3622,10 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="58" spans="1:25" ht="14.25" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
@@ -3662,7 +3662,7 @@
         <v>412</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="59" spans="1:25" ht="14.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
@@ -3699,7 +3699,7 @@
         <v>240</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="60" spans="1:25" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -3736,7 +3736,7 @@
         <v>280</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="61" spans="1:25" ht="14.25" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
@@ -3770,10 +3770,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="62" spans="1:25" ht="14.25" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
@@ -3807,10 +3807,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="63" spans="1:25" ht="14.25" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
@@ -3844,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="64" spans="1:25" ht="14.25" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
@@ -3881,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="65" spans="1:25" ht="14.25" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="66" spans="1:25" ht="13.8" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
@@ -3953,10 +3953,10 @@
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="67" spans="1:25" s="19" customFormat="1" ht="21.6" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>22</v>
@@ -3990,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="68" spans="1:25" ht="14.25" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>22</v>
@@ -4027,10 +4027,10 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="69" spans="1:25" ht="14.25" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
@@ -4064,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="70" spans="1:25" ht="14.25" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>22</v>
@@ -4101,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="71" spans="1:25" ht="14.25" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>22</v>
@@ -4141,7 +4141,7 @@
         <v>120</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="72" spans="1:25" ht="14.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>11</v>
@@ -4175,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="73" spans="1:25" ht="14.25" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
@@ -4212,10 +4212,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="74" spans="1:25" ht="14.25" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>22</v>
@@ -4249,10 +4249,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="75" spans="1:25" ht="14.25" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>22</v>
@@ -4286,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="76" spans="1:25" ht="14.25" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
@@ -4323,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="77" spans="1:25" ht="14.25" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
@@ -4360,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="78" spans="1:25" ht="14.25" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>22</v>
@@ -4397,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="79" spans="1:25" ht="14.25" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>22</v>
@@ -4434,10 +4434,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="80" spans="1:25" ht="14.25" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>22</v>
@@ -4474,7 +4474,7 @@
         <v>30</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="81" spans="1:25" ht="14.25" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>22</v>
@@ -4508,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="82" spans="1:25" ht="14.25" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>48</v>
@@ -4548,7 +4548,7 @@
         <v>0.02</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="83" spans="1:25" ht="14.25" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>11</v>
@@ -4585,7 +4585,7 @@
         <v>330</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="84" spans="1:25" ht="14.25" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
@@ -4622,7 +4622,7 @@
         <v>470</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="85" spans="1:25" ht="14.25" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
@@ -4656,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="86" spans="1:25" ht="14.25" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
@@ -4696,7 +4696,7 @@
         <v>500</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="87" spans="1:25" ht="14.25" customHeight="1">
       <c r="A87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -4733,7 +4733,7 @@
         <v>330</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="88" spans="1:25" ht="14.25" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4770,7 +4770,7 @@
         <v>470</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4795,19 +4795,19 @@
     </row>
     <row r="89" spans="1:25" ht="14.25" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4832,19 +4832,19 @@
     </row>
     <row r="90" spans="1:25" ht="14.25" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4869,16 +4869,16 @@
     </row>
     <row r="91" spans="1:25" ht="24.6" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -4904,19 +4904,19 @@
     </row>
     <row r="92" spans="1:25" ht="14.25" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -4941,19 +4941,19 @@
     </row>
     <row r="93" spans="1:25" ht="14.25" customHeight="1">
       <c r="A93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -4978,19 +4978,19 @@
     </row>
     <row r="94" spans="1:25" ht="14.25" customHeight="1">
       <c r="A94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -5015,19 +5015,19 @@
     </row>
     <row r="95" spans="1:25" ht="14.25" customHeight="1">
       <c r="A95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -5052,19 +5052,19 @@
     </row>
     <row r="96" spans="1:25" ht="14.25" customHeight="1">
       <c r="A96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -5089,19 +5089,19 @@
     </row>
     <row r="97" spans="1:25" ht="14.25" customHeight="1">
       <c r="A97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -5126,19 +5126,19 @@
     </row>
     <row r="98" spans="1:25" ht="14.25" customHeight="1">
       <c r="A98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -5163,19 +5163,19 @@
     </row>
     <row r="99" spans="1:25" ht="14.25" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -5200,19 +5200,19 @@
     </row>
     <row r="100" spans="1:25" ht="14.25" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -5237,19 +5237,19 @@
     </row>
     <row r="101" spans="1:25" ht="14.25" customHeight="1">
       <c r="A101" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="C101" s="13">
         <v>2</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
@@ -5274,19 +5274,19 @@
     </row>
     <row r="102" spans="1:25" ht="14.25" customHeight="1">
       <c r="A102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -5311,19 +5311,19 @@
     </row>
     <row r="103" spans="1:25" ht="14.25" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -5348,19 +5348,19 @@
     </row>
     <row r="104" spans="1:25" ht="14.25" customHeight="1">
       <c r="A104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -5385,19 +5385,19 @@
     </row>
     <row r="105" spans="1:25" ht="14.25" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5422,19 +5422,19 @@
     </row>
     <row r="106" spans="1:25" ht="14.25" customHeight="1">
       <c r="A106" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5459,19 +5459,19 @@
     </row>
     <row r="107" spans="1:25" ht="14.25" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -5496,19 +5496,19 @@
     </row>
     <row r="108" spans="1:25" ht="14.25" customHeight="1">
       <c r="A108" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -5533,19 +5533,19 @@
     </row>
     <row r="109" spans="1:25" ht="14.25" customHeight="1">
       <c r="A109" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -5570,19 +5570,19 @@
     </row>
     <row r="110" spans="1:25" ht="14.25" customHeight="1">
       <c r="A110" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5607,19 +5607,19 @@
     </row>
     <row r="111" spans="1:25" ht="14.25" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -5644,19 +5644,19 @@
     </row>
     <row r="112" spans="1:25" ht="14.25" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="113" spans="1:25" ht="14.25" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="114" spans="1:25" ht="14.25" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -5755,19 +5755,19 @@
     </row>
     <row r="115" spans="1:25" ht="14.25" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -29722,82 +29722,82 @@
     <hyperlink ref="E34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="E35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="E37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E47" r:id="rId44" display="https://gr.mouser.com/ProductDetail/Wurth-Elektronik/782853200?qs=sBf%2Fb4nBSle7OloWbfgdIw%3D%3D" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E66" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E68" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E69" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E70" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E71" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E72" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E73" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E74" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E75" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E76" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E78" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E79" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E80" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E81" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E82" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E83" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E84" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E85" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E86" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E87" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E88" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E89" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E90" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E92" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E93" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E94" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E95" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E96" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E97" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E98" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E99" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E100" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E102" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E103" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E104" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E105" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E106" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E107" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E108" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E109" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E110" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E111" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E112" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E113" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E114" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E115" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E4" r:id="rId109" xr:uid="{D170099B-ADBD-4DE5-9B86-657B743E2E00}"/>
-    <hyperlink ref="E67" r:id="rId110" xr:uid="{A295C139-70B5-47C5-B808-23ACF6CB7AE7}"/>
+    <hyperlink ref="E40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E45" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E47" r:id="rId42" display="https://gr.mouser.com/ProductDetail/Wurth-Elektronik/782853200?qs=sBf%2Fb4nBSle7OloWbfgdIw%3D%3D" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E55" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E57" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E58" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E59" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E60" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E61" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E62" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E63" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E64" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E68" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E69" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E72" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E73" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E75" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E76" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E77" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E78" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E79" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E80" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E81" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E82" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E83" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E84" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E85" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E86" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E87" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E88" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E89" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E90" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E92" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E93" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E94" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E95" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E96" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E97" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E98" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E99" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E100" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E102" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E103" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E104" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E105" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E106" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E107" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E108" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E109" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E110" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E111" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E112" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E113" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E114" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E115" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E4" r:id="rId107" xr:uid="{D170099B-ADBD-4DE5-9B86-657B743E2E00}"/>
+    <hyperlink ref="E67" r:id="rId108" xr:uid="{A295C139-70B5-47C5-B808-23ACF6CB7AE7}"/>
+    <hyperlink ref="E38" r:id="rId109" xr:uid="{CE9EB01C-1E68-48B9-B9C3-8A90DDD0F776}"/>
+    <hyperlink ref="E39" r:id="rId110" xr:uid="{B527538D-C729-40DA-9BBB-4E77E30D1E8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
